--- a/VIZE200401073/inst/extdata/TopBooks.xlsx
+++ b/VIZE200401073/inst/extdata/TopBooks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21a5d4ae2831a0e1/Belgeler/GitHub/Week7-Homework-Vize/VIZE200401073/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21a5d4ae2831a0e1/Belgeler/GitHub/rodevi/Vize200401073/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{503484E7-779C-4C2C-95E6-D5600161A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AF5962E-9A06-4B95-9DD9-45B69CC2D55A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{503484E7-779C-4C2C-95E6-D5600161A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AE21F25-C050-4ADB-9D66-25E2EDDCE691}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
